--- a/题目清单.xlsx
+++ b/题目清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>OJ网站</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>周赛307 p3</t>
+  </si>
+  <si>
+    <t>HDU</t>
+  </si>
+  <si>
+    <t>整数转罗马数字</t>
+  </si>
+  <si>
+    <t>阿拉伯数字转罗马数字</t>
+  </si>
+  <si>
+    <t>1-9，10-90，100-900等用半打表的方式生成每个位置对应的罗马数字</t>
   </si>
 </sst>
 </file>
@@ -148,7 +160,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +170,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -642,48 +647,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,101 +701,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,8 +814,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1160,13 +1171,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="7.33333333333333" style="2" customWidth="1"/>
@@ -1204,10 +1215,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1369,12 +1380,72 @@
         <v>38</v>
       </c>
     </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44796</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8">
+        <v>44796</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:H6">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5:E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7:E8">
       <formula1>"0星,1星,2星,3星,4星,5星"</formula1>
     </dataValidation>
   </dataValidations>

--- a/题目清单.xlsx
+++ b/题目清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$8</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>OJ网站</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>1-9，10-90，100-900等用半打表的方式生成每个位置对应的罗马数字</t>
+  </si>
+  <si>
+    <t>杨辉三角</t>
+  </si>
+  <si>
+    <t>下标处理</t>
+  </si>
+  <si>
+    <t>给出行数，画出杨辉三角的前这么多行</t>
+  </si>
+  <si>
+    <t>找下标规律</t>
   </si>
 </sst>
 </file>
@@ -1171,13 +1183,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="7.33333333333333" style="2" customWidth="1"/>
@@ -1381,22 +1393,22 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>1000</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>44796</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1411,41 +1423,71 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>44796</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7">
+        <v>118</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8">
+        <v>44797</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H6">
+  <autoFilter ref="A1:H8">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8:E9">
       <formula1>"0星,1星,2星,3星,4星,5星"</formula1>
     </dataValidation>
   </dataValidations>

--- a/题目清单.xlsx
+++ b/题目清单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>OJ网站</t>
   </si>
@@ -160,6 +160,36 @@
   </si>
   <si>
     <t>找下标规律</t>
+  </si>
+  <si>
+    <t>二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>dfs,二叉树中序遍历</t>
+  </si>
+  <si>
+    <t>给出二叉树，输出其中序遍历</t>
+  </si>
+  <si>
+    <t>dfs先左子树，再跟节点，后右子树，记录中序遍历最终打印</t>
+  </si>
+  <si>
+    <t>最后一个单词的长度</t>
+  </si>
+  <si>
+    <t>给出只包含单词和空格的字符串，求最后一个单词的长度</t>
+  </si>
+  <si>
+    <t>简单字符串处理</t>
+  </si>
+  <si>
+    <t>通过翻转子数组使两个数组相等</t>
+  </si>
+  <si>
+    <t>给出两个等长数组，判断是否能通过若干次子数组反转使得二者一样</t>
+  </si>
+  <si>
+    <t>冒泡排序就是多次的长度为2的子数组反转，所以只要两个数组内的相应元素个数相等即一定可以达成</t>
   </si>
 </sst>
 </file>
@@ -804,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,6 +858,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1183,10 +1216,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1453,41 +1486,127 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>118</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>44797</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>94</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="9">
+        <v>44797</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="9">
+        <v>44797</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1460</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="9">
+        <v>44797</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H8">
+  <autoFilter ref="A1:H9">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11:E12">
       <formula1>"0星,1星,2星,3星,4星,5星"</formula1>
     </dataValidation>
   </dataValidations>

--- a/题目清单.xlsx
+++ b/题目清单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>OJ网站</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>冒泡排序就是多次的长度为2的子数组反转，所以只要两个数组内的相应元素个数相等即一定可以达成</t>
+  </si>
+  <si>
+    <t>SUM(n)</t>
+  </si>
+  <si>
+    <t>给出n，求1+2+...+n的和</t>
   </si>
 </sst>
 </file>
@@ -834,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,12 +863,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1216,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1516,97 +1519,131 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>94</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>44797</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="6" t="s">
         <v>50</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>58</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>44797</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>1460</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>44797</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1001</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44797</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H9">
+  <autoFilter ref="A1:H12">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11:E12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12:E13">
       <formula1>"0星,1星,2星,3星,4星,5星"</formula1>
     </dataValidation>
   </dataValidations>

--- a/题目清单.xlsx
+++ b/题目清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="10728" windowHeight="5003"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$13</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>OJ网站</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>给出n，求1+2+...+n的和</t>
+  </si>
+  <si>
+    <t>A+B 2</t>
+  </si>
+  <si>
+    <t>高精度加法</t>
+  </si>
+  <si>
+    <t>给出两个长度不超1000的大正数求和</t>
+  </si>
+  <si>
+    <t>高精度加法计算即可</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1609,13 +1621,13 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>1001</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="5">
@@ -1624,26 +1636,56 @@
       <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1002</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="5">
+        <v>44797</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H12">
+  <autoFilter ref="A1:H13">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13:E14">
       <formula1>"0星,1星,2星,3星,4星,5星"</formula1>
     </dataValidation>
   </dataValidations>

--- a/题目清单.xlsx
+++ b/题目清单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$14</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>OJ网站</t>
   </si>
@@ -54,7 +54,7 @@
     <t>POJ</t>
   </si>
   <si>
-    <t>A+B</t>
+    <t>A+B Problem</t>
   </si>
   <si>
     <t>0星</t>
@@ -141,6 +141,9 @@
     <t>HDU</t>
   </si>
   <si>
+    <t>A + B Problem</t>
+  </si>
+  <si>
     <t>整数转罗马数字</t>
   </si>
   <si>
@@ -192,13 +195,13 @@
     <t>冒泡排序就是多次的长度为2的子数组反转，所以只要两个数组内的相应元素个数相等即一定可以达成</t>
   </si>
   <si>
-    <t>SUM(n)</t>
+    <t>Sum Problem</t>
   </si>
   <si>
     <t>给出n，求1+2+...+n的和</t>
   </si>
   <si>
-    <t>A+B 2</t>
+    <t>A + B Problem II</t>
   </si>
   <si>
     <t>高精度加法</t>
@@ -208,6 +211,15 @@
   </si>
   <si>
     <t>高精度加法计算即可</t>
+  </si>
+  <si>
+    <t>相同的树</t>
+  </si>
+  <si>
+    <t>判断两棵树是否相同</t>
+  </si>
+  <si>
+    <t>dfs遍历即可</t>
   </si>
 </sst>
 </file>
@@ -1231,10 +1243,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1448,7 +1460,7 @@
         <v>1000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5">
         <v>44796</v>
@@ -1478,7 +1490,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5">
         <v>44796</v>
@@ -1490,10 +1502,10 @@
         <v>13</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>16</v>
@@ -1508,7 +1520,7 @@
         <v>118</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5">
         <v>44797</v>
@@ -1517,13 +1529,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>16</v>
@@ -1538,7 +1550,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5">
         <v>44797</v>
@@ -1547,13 +1559,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>16</v>
@@ -1568,7 +1580,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5">
         <v>44797</v>
@@ -1580,10 +1592,10 @@
         <v>13</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>16</v>
@@ -1598,7 +1610,7 @@
         <v>1460</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5">
         <v>44797</v>
@@ -1610,10 +1622,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>16</v>
@@ -1628,7 +1640,7 @@
         <v>1001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="5">
         <v>44797</v>
@@ -1640,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>15</v>
@@ -1654,11 +1666,11 @@
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>1002</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>59</v>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="5">
         <v>44797</v>
@@ -1666,26 +1678,56 @@
       <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8">
+        <v>100</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5">
+        <v>44797</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H13">
+  <autoFilter ref="A1:H14">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14:E15">
       <formula1>"0星,1星,2星,3星,4星,5星"</formula1>
     </dataValidation>
   </dataValidations>

--- a/题目清单.xlsx
+++ b/题目清单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$15</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>OJ网站</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>dfs遍历即可</t>
+  </si>
+  <si>
+    <t>矩阵置零</t>
+  </si>
+  <si>
+    <t>矩阵中某个位置为0，所在行和列全部置0</t>
+  </si>
+  <si>
+    <t>扫描一遍标记哪些行和列出现了0，最后根据标记去置0</t>
   </si>
 </sst>
 </file>
@@ -1243,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1693,13 +1702,13 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>100</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="5">
@@ -1708,26 +1717,56 @@
       <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>66</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8">
+        <v>73</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="5">
+        <v>44797</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H14">
+  <autoFilter ref="A1:H15">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14:E15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15:E16">
       <formula1>"0星,1星,2星,3星,4星,5星"</formula1>
     </dataValidation>
   </dataValidations>

--- a/题目清单.xlsx
+++ b/题目清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10728" windowHeight="5003"/>
+    <workbookView windowWidth="10931" windowHeight="5292"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>OJ网站</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>扫描一遍标记哪些行和列出现了0，最后根据标记去置0</t>
+  </si>
+  <si>
+    <t>二进制求和</t>
+  </si>
+  <si>
+    <t>高进度加法</t>
+  </si>
+  <si>
+    <t>给两个二进制串，求和</t>
+  </si>
+  <si>
+    <t>二进制的高精度加法</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1264,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1735,10 +1747,10 @@
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>73</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="5">
@@ -1747,26 +1759,56 @@
       <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="6" t="s">
         <v>69</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="8">
+        <v>67</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="5">
+        <v>44797</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H15">
+  <autoFilter ref="A1:H16">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15:E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16:E17">
       <formula1>"0星,1星,2星,3星,4星,5星"</formula1>
     </dataValidation>
   </dataValidations>

--- a/题目清单.xlsx
+++ b/题目清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10931" windowHeight="5292"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>OJ网站</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>二进制的高精度加法</t>
+  </si>
+  <si>
+    <t>K 个一组翻转链表</t>
+  </si>
+  <si>
+    <t>单向链表</t>
+  </si>
+  <si>
+    <t>给出一个链表，K个一组的翻转</t>
+  </si>
+  <si>
+    <t>单向链表指针操作</t>
   </si>
 </sst>
 </file>
@@ -1264,10 +1276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1777,10 +1789,10 @@
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <v>67</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="5">
@@ -1789,26 +1801,56 @@
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44797</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H16">
+  <autoFilter ref="A1:H17">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16:E17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17:E18">
       <formula1>"0星,1星,2星,3星,4星,5星"</formula1>
     </dataValidation>
   </dataValidations>
